--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1743934.048597226</v>
+        <v>-1744646.313350971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159121.1834712303</v>
+        <v>157162.2978848982</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>151.485233992402</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>62.8703951070085</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>138.8488573107644</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>109.644516236816</v>
+      </c>
+      <c r="T12" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="T12" t="n">
-        <v>37.25105517350685</v>
-      </c>
       <c r="U12" t="n">
-        <v>59.08630782930764</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V12" t="n">
         <v>62.50715706586126</v>
@@ -1512,7 +1512,7 @@
         <v>88.56281972747061</v>
       </c>
       <c r="X12" t="n">
-        <v>188.4860450762373</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y12" t="n">
         <v>45.24252228448464</v>
@@ -1607,13 +1607,13 @@
         <v>188.4860450762373</v>
       </c>
       <c r="C14" t="n">
-        <v>156.1199278312721</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.8703951070085</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294982</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.420717393424479</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050422</v>
+        <v>118.0577450839352</v>
       </c>
       <c r="T15" t="n">
         <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930764</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V15" t="n">
-        <v>131.168405560546</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
+        <v>88.56281972747061</v>
+      </c>
+      <c r="X15" t="n">
+        <v>39.17115058992962</v>
+      </c>
+      <c r="Y15" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="X15" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256529</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591078</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695924</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636806</v>
+        <v>74.02698361636811</v>
       </c>
       <c r="F17" t="n">
         <v>105.7473211947454</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426087</v>
+        <v>49.5701049842609</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388398</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049885</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943809</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318185</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>106.6665152207955</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>87.1731592459968</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423133</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256529</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591078</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695924</v>
       </c>
       <c r="E20" t="n">
-        <v>74.02698361636806</v>
+        <v>74.02698361636811</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947452</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G20" t="n">
         <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426084</v>
+        <v>49.57010498426092</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388398</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049885</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943809</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318185</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>166.0185085031498</v>
       </c>
       <c r="U21" t="n">
-        <v>28.96456894071548</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256529</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591078</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695924</v>
       </c>
       <c r="E23" t="n">
-        <v>74.02698361636806</v>
+        <v>74.02698361636811</v>
       </c>
       <c r="F23" t="n">
         <v>105.7473211947454</v>
@@ -2333,7 +2333,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426092</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388398</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049885</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943809</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318185</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.33442143502869</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>31.29664852568516</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.5992110257043</v>
+        <v>160.5992110257044</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7174680290498</v>
+        <v>136.7174680290499</v>
       </c>
       <c r="D26" t="n">
         <v>124.2841302900983</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442052</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754899</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335711</v>
+        <v>8.978123394335746</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945433</v>
       </c>
       <c r="V26" t="n">
-        <v>107.391754257023</v>
+        <v>107.3917542570231</v>
       </c>
       <c r="W26" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2946849425771</v>
+        <v>146.2946849425772</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7975380663209</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>19.66704290511453</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.48302793477748</v>
+        <v>1.483027934777508</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671962</v>
+        <v>23.74004232671965</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327325</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2165542248826</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>115.9230080687091</v>
+        <v>3.824885087341642</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896653</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086748</v>
+        <v>21.95049958086751</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174307</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307767</v>
+        <v>75.1685291330777</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232094</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720636</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113565</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039455</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5992110257043</v>
+        <v>160.5992110257044</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7174680290498</v>
+        <v>136.7174680290499</v>
       </c>
       <c r="D29" t="n">
         <v>124.2841302900983</v>
@@ -2807,10 +2807,10 @@
         <v>205.350205597189</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040773999</v>
+        <v>133.5340040774</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442052</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754896</v>
+        <v>14.03037772754899</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335718</v>
+        <v>8.978123394335746</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945433</v>
       </c>
       <c r="V29" t="n">
-        <v>107.391754257023</v>
+        <v>107.3917542570231</v>
       </c>
       <c r="W29" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2946849425771</v>
+        <v>146.2946849425772</v>
       </c>
       <c r="Y29" t="n">
         <v>168.7975380663209</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11.69981940115826</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48302793477748</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671962</v>
+        <v>23.74004232671965</v>
       </c>
       <c r="V30" t="n">
-        <v>230.4521183244769</v>
+        <v>27.16089156327328</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341642</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896653</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086748</v>
+        <v>21.95049958086751</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174307</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307767</v>
+        <v>75.1685291330777</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232094</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720636</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113565</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039455</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664838</v>
+        <v>159.6893265664837</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698293</v>
+        <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
       </c>
       <c r="E32" t="n">
-        <v>157.0809982502866</v>
+        <v>157.0809982502865</v>
       </c>
       <c r="F32" t="n">
         <v>188.8013358286639</v>
       </c>
       <c r="G32" t="n">
-        <v>204.4403211379684</v>
+        <v>204.4403211379683</v>
       </c>
       <c r="H32" t="n">
-        <v>132.6241196181794</v>
+        <v>132.6241196181793</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519993</v>
+        <v>26.61424514519987</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.1204932683284</v>
+        <v>13.12049326832835</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115147</v>
+        <v>8.06823893511509</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023374</v>
+        <v>35.75263264023368</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978025</v>
+        <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833566</v>
+        <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569162</v>
+        <v>0.5731434755568593</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749906</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.25100710405263</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>190.1688505572141</v>
       </c>
       <c r="X33" t="n">
-        <v>202.9720757677837</v>
+        <v>2.915000628120993</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676061</v>
+        <v>8.986372322676004</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164692</v>
+        <v>21.04061512164686</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522478</v>
+        <v>9.363763442522421</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385711</v>
+        <v>74.25864467385705</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310035</v>
+        <v>30.71110137310029</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798577</v>
+        <v>75.91279327798571</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892973</v>
+        <v>7.521541596892916</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818863</v>
+        <v>2.743359002818806</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667692</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772538</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41983762713431</v>
+        <v>99.41983762713426</v>
       </c>
       <c r="F35" t="n">
         <v>131.1401752055116</v>
@@ -3281,7 +3281,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502707</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465012</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126499</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020423</v>
       </c>
       <c r="Y35" t="n">
         <v>110.226492983948</v>
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>24.292163713736</v>
+        <v>60.30820948813823</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59748405070482</v>
+        <v>16.59748405070476</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483343</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667692</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772538</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41983762713431</v>
+        <v>99.41983762713426</v>
       </c>
       <c r="F38" t="n">
         <v>131.1401752055116</v>
@@ -3518,7 +3518,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502707</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465012</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126499</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020423</v>
       </c>
       <c r="Y38" t="n">
         <v>110.226492983948</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>60.96061608726387</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>41.55679849511257</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59748405070482</v>
+        <v>16.59748405070476</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483343</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.39188024571664</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>149.7194277342779</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423133</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>229.701970363479</v>
+        <v>152.3734157461563</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4847,7 +4847,7 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.72645176493065</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4905,28 +4905,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.962690994954155</v>
       </c>
-      <c r="S9" t="n">
-        <v>3.410297630181626</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.410297630181626</v>
-      </c>
       <c r="U9" t="n">
-        <v>3.410297630181626</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>3.410297630181626</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="W9" t="n">
         <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.410297630181626</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="10">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>592.5757964905796</v>
+        <v>239.8271572421544</v>
       </c>
       <c r="C11" t="n">
-        <v>592.5757964905796</v>
+        <v>239.8271572421544</v>
       </c>
       <c r="D11" t="n">
-        <v>592.5757964905796</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="E11" t="n">
-        <v>402.1858519691277</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="F11" t="n">
-        <v>249.1704640980146</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1704640980146</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.58433320913787</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115222</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="K11" t="n">
         <v>285.1128385102957</v>
@@ -5051,10 +5051,10 @@
         <v>412.6751204626775</v>
       </c>
       <c r="N11" t="n">
-        <v>487.9920637663397</v>
+        <v>599.2763050881524</v>
       </c>
       <c r="O11" t="n">
-        <v>522.2023588431221</v>
+        <v>633.4866001649348</v>
       </c>
       <c r="P11" t="n">
         <v>666.4050806852709</v>
@@ -5075,16 +5075,16 @@
         <v>753.9441803049492</v>
       </c>
       <c r="V11" t="n">
-        <v>753.9441803049492</v>
+        <v>613.6928092839751</v>
       </c>
       <c r="W11" t="n">
-        <v>592.5757964905796</v>
+        <v>613.6928092839751</v>
       </c>
       <c r="X11" t="n">
-        <v>592.5757964905796</v>
+        <v>430.2171017636063</v>
       </c>
       <c r="Y11" t="n">
-        <v>592.5757964905796</v>
+        <v>430.2171017636063</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753832</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609898</v>
@@ -5124,10 +5124,10 @@
         <v>53.03690762936461</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743617</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576279</v>
       </c>
       <c r="N12" t="n">
         <v>538.6322093831028</v>
@@ -5145,25 +5145,25 @@
         <v>753.9441803049492</v>
       </c>
       <c r="S12" t="n">
-        <v>563.5542357834973</v>
+        <v>643.1921437021048</v>
       </c>
       <c r="T12" t="n">
-        <v>525.9269073254096</v>
+        <v>452.8021991806529</v>
       </c>
       <c r="U12" t="n">
-        <v>466.2437681038868</v>
+        <v>262.4122546592011</v>
       </c>
       <c r="V12" t="n">
-        <v>403.1052256131179</v>
+        <v>199.2737121684322</v>
       </c>
       <c r="W12" t="n">
-        <v>313.6478319490061</v>
+        <v>109.8163185043204</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2578874275542</v>
+        <v>70.24949972661372</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753832</v>
       </c>
     </row>
     <row r="13">
@@ -5188,34 +5188,34 @@
         <v>15.07888360609898</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07888360609898</v>
+        <v>24.42543511222853</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07888360609898</v>
+        <v>24.42543511222853</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07888360609898</v>
+        <v>24.42543511222853</v>
       </c>
       <c r="J13" t="n">
-        <v>52.64014424819067</v>
+        <v>81.74662365481392</v>
       </c>
       <c r="K13" t="n">
-        <v>52.64014424819067</v>
+        <v>81.74662365481392</v>
       </c>
       <c r="L13" t="n">
-        <v>52.64014424819067</v>
+        <v>81.74662365481392</v>
       </c>
       <c r="M13" t="n">
-        <v>52.64014424819067</v>
+        <v>233.137958133083</v>
       </c>
       <c r="N13" t="n">
-        <v>212.6413222765428</v>
+        <v>381.5177513997454</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085033</v>
+        <v>520.770111631706</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385322</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q13" t="n">
         <v>520.770111631706</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>172.7757804053637</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="C14" t="n">
-        <v>15.07888360609898</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="D14" t="n">
-        <v>15.07888360609898</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="E14" t="n">
-        <v>15.07888360609898</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07888360609898</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07888360609898</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07888360609898</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
@@ -5282,16 +5282,16 @@
         <v>184.7715035048724</v>
       </c>
       <c r="L14" t="n">
-        <v>231.4826618439089</v>
+        <v>323.6358291427885</v>
       </c>
       <c r="M14" t="n">
-        <v>418.0838464693838</v>
+        <v>404.4869527561338</v>
       </c>
       <c r="N14" t="n">
-        <v>493.400789773046</v>
+        <v>479.803896059796</v>
       </c>
       <c r="O14" t="n">
-        <v>527.6110848498283</v>
+        <v>666.4050806852709</v>
       </c>
       <c r="P14" t="n">
         <v>666.4050806852709</v>
@@ -5300,28 +5300,28 @@
         <v>753.9441803049492</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0313769686362</v>
+        <v>709.1720703080565</v>
       </c>
       <c r="U14" t="n">
-        <v>737.0313769686362</v>
+        <v>636.4359262655895</v>
       </c>
       <c r="V14" t="n">
-        <v>737.0313769686362</v>
+        <v>629.9503531409183</v>
       </c>
       <c r="W14" t="n">
-        <v>737.0313769686362</v>
+        <v>629.9503531409183</v>
       </c>
       <c r="X14" t="n">
-        <v>553.5556694482674</v>
+        <v>629.9503531409183</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.1657249268155</v>
+        <v>629.9503531409183</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753832</v>
       </c>
       <c r="C15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609898</v>
@@ -5376,31 +5376,31 @@
         <v>753.9441803049492</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4155611444166</v>
+        <v>634.6939327454187</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2142546420273</v>
+        <v>597.4926262430293</v>
       </c>
       <c r="U15" t="n">
-        <v>636.5311154205044</v>
+        <v>407.1026817215775</v>
       </c>
       <c r="V15" t="n">
-        <v>504.037776470458</v>
+        <v>343.9641392308086</v>
       </c>
       <c r="W15" t="n">
-        <v>313.6478319490061</v>
+        <v>254.5067455666968</v>
       </c>
       <c r="X15" t="n">
-        <v>123.2578874275542</v>
+        <v>214.9399267889902</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753832</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07888360609898</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07888360609898</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07888360609898</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07888360609898</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07888360609898</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07888360609898</v>
+        <v>36.51276691374863</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07888360609898</v>
+        <v>48.70671470630782</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07888360609898</v>
+        <v>61.86179471704935</v>
       </c>
       <c r="J16" t="n">
-        <v>72.40007214868437</v>
+        <v>106.2455102651223</v>
       </c>
       <c r="K16" t="n">
-        <v>72.40007214868437</v>
+        <v>216.2429779973848</v>
       </c>
       <c r="L16" t="n">
-        <v>72.40007214868437</v>
+        <v>360.7689336033538</v>
       </c>
       <c r="M16" t="n">
-        <v>223.7914066269534</v>
+        <v>360.7689336033538</v>
       </c>
       <c r="N16" t="n">
-        <v>223.7914066269534</v>
+        <v>520.770111631706</v>
       </c>
       <c r="O16" t="n">
-        <v>363.043766858914</v>
+        <v>520.770111631706</v>
       </c>
       <c r="P16" t="n">
-        <v>481.5069708889428</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q16" t="n">
         <v>520.770111631706</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417497</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731528</v>
+        <v>410.079840673153</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135981</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F17" t="n">
         <v>187.7621275336855</v>
       </c>
       <c r="G17" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151403</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07888360609898</v>
+        <v>19.58843850842578</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07888360609898</v>
+        <v>19.58843850842578</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07888360609898</v>
+        <v>206.1896231339007</v>
       </c>
       <c r="L17" t="n">
-        <v>61.79004194513546</v>
+        <v>392.7908077593756</v>
       </c>
       <c r="M17" t="n">
-        <v>142.6411655584808</v>
+        <v>473.641931372721</v>
       </c>
       <c r="N17" t="n">
-        <v>217.958108862143</v>
+        <v>548.9588746763832</v>
       </c>
       <c r="O17" t="n">
-        <v>252.1684039389253</v>
+        <v>583.1691697531655</v>
       </c>
       <c r="P17" t="n">
-        <v>438.7695885644002</v>
+        <v>583.1691697531655</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1048836376021</v>
+        <v>583.1691697531655</v>
       </c>
       <c r="R17" t="n">
-        <v>563.6457080374516</v>
+        <v>684.709994153015</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893858</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312012</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="U17" t="n">
         <v>753.9441803049492</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394099</v>
+        <v>730.2796801394098</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X17" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.8312260755198</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0872713070395</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0872713070395</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0872713070395</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0872713070395</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="G18" t="n">
-        <v>68.0872713070395</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936462</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
         <v>352.0310247576278</v>
@@ -5616,28 +5616,28 @@
         <v>747.0010596398754</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0010596398754</v>
+        <v>610.9183727939516</v>
       </c>
       <c r="S18" t="n">
-        <v>556.6111151184235</v>
+        <v>610.9183727939516</v>
       </c>
       <c r="T18" t="n">
-        <v>556.6111151184235</v>
+        <v>610.9183727939516</v>
       </c>
       <c r="U18" t="n">
-        <v>556.6111151184235</v>
+        <v>420.5284282724997</v>
       </c>
       <c r="V18" t="n">
-        <v>366.2211705969717</v>
+        <v>420.5284282724997</v>
       </c>
       <c r="W18" t="n">
-        <v>366.2211705969717</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="X18" t="n">
-        <v>175.8312260755198</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.8312260755198</v>
+        <v>230.1384837510479</v>
       </c>
     </row>
     <row r="19">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417493</v>
+        <v>463.3662739417488</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731519</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135972</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879736</v>
+        <v>294.577603487973</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336844</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151398</v>
+        <v>65.14969672151406</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5554400254053</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2665983644418</v>
+        <v>61.79004194513546</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1177219777872</v>
+        <v>248.3912265706104</v>
       </c>
       <c r="N20" t="n">
-        <v>460.4346652814494</v>
+        <v>434.9924111960853</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6449603582317</v>
+        <v>621.5935958215603</v>
       </c>
       <c r="P20" t="n">
-        <v>681.2461449837066</v>
+        <v>621.5935958215603</v>
       </c>
       <c r="Q20" t="n">
-        <v>753.9441803049492</v>
+        <v>621.5935958215603</v>
       </c>
       <c r="R20" t="n">
-        <v>753.9441803049492</v>
+        <v>621.5935958215603</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9441803049492</v>
+        <v>690.8277819734944</v>
       </c>
       <c r="T20" t="n">
         <v>753.9441803049492</v>
@@ -5786,16 +5786,16 @@
         <v>753.9441803049492</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985014</v>
       </c>
       <c r="X20" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515944</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342396</v>
+        <v>540.775679934239</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C21" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D21" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E21" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609898</v>
@@ -5850,31 +5850,31 @@
         <v>753.9441803049492</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0010596398754</v>
+        <v>563.5542357834973</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0010596398754</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="U21" t="n">
-        <v>717.7439192957183</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="V21" t="n">
-        <v>527.3539747742665</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="W21" t="n">
-        <v>336.9640302528146</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="X21" t="n">
-        <v>336.9640302528146</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="Y21" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="22">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417488</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731528</v>
+        <v>410.0798406731521</v>
       </c>
       <c r="D23" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135973</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879738</v>
+        <v>294.577603487973</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336854</v>
+        <v>187.7621275336849</v>
       </c>
       <c r="G23" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151406</v>
       </c>
       <c r="H23" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5554400254053</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K23" t="n">
-        <v>444.1566246508803</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L23" t="n">
-        <v>490.8677829899168</v>
+        <v>248.3912265706104</v>
       </c>
       <c r="M23" t="n">
-        <v>571.7189066032622</v>
+        <v>422.7918662238779</v>
       </c>
       <c r="N23" t="n">
-        <v>647.0358499069243</v>
+        <v>498.1088095275401</v>
       </c>
       <c r="O23" t="n">
-        <v>681.2461449837067</v>
+        <v>684.709994153015</v>
       </c>
       <c r="P23" t="n">
-        <v>681.2461449837067</v>
+        <v>684.709994153015</v>
       </c>
       <c r="Q23" t="n">
-        <v>681.2461449837067</v>
+        <v>684.709994153015</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9441803049492</v>
+        <v>684.709994153015</v>
       </c>
       <c r="S23" t="n">
         <v>753.9441803049492</v>
@@ -6023,16 +6023,16 @@
         <v>753.9441803049492</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394099</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X23" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515945</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342396</v>
+        <v>540.775679934239</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>538.834477990689</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C24" t="n">
-        <v>349.4222037236527</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D24" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E24" t="n">
         <v>15.07888360609898</v>
@@ -6072,7 +6072,7 @@
         <v>53.03690762936461</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743617</v>
       </c>
       <c r="M24" t="n">
         <v>352.0310247576278</v>
@@ -6087,31 +6087,31 @@
         <v>753.9441803049492</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R24" t="n">
-        <v>717.3703309176242</v>
+        <v>617.8614934590254</v>
       </c>
       <c r="S24" t="n">
-        <v>717.3703309176242</v>
+        <v>617.8614934590254</v>
       </c>
       <c r="T24" t="n">
-        <v>717.3703309176242</v>
+        <v>427.4715489375735</v>
       </c>
       <c r="U24" t="n">
-        <v>717.3703309176242</v>
+        <v>427.4715489375735</v>
       </c>
       <c r="V24" t="n">
-        <v>717.3703309176242</v>
+        <v>237.0816044161217</v>
       </c>
       <c r="W24" t="n">
-        <v>717.3703309176242</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="X24" t="n">
-        <v>717.3703309176242</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.3703309176242</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="25">
@@ -6203,22 +6203,22 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073101</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617563</v>
+        <v>757.2394630617566</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501328</v>
+        <v>597.6527128501332</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098455</v>
+        <v>406.0252176098458</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116748</v>
+        <v>198.6007675116751</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026091</v>
+        <v>63.71793511026094</v>
       </c>
       <c r="I26" t="n">
         <v>35.91578399468465</v>
@@ -6239,7 +6239,7 @@
         <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
@@ -6257,19 +6257,19 @@
         <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503564</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.3189784230624</v>
+        <v>55.78148389884075</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9067041560261</v>
+        <v>55.78148389884075</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9067041560261</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3435002774406</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F27" t="n">
         <v>35.91578399468465</v>
@@ -6324,31 +6324,31 @@
         <v>793.0763328677682</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.0763328677682</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677682</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="S27" t="n">
-        <v>793.0763328677682</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528414</v>
+        <v>784.6352041877676</v>
       </c>
       <c r="U27" t="n">
-        <v>767.5984841187812</v>
+        <v>760.6553634537073</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1632401154749</v>
+        <v>517.5756453573414</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4091449388258</v>
+        <v>248.1770760876327</v>
       </c>
       <c r="X27" t="n">
-        <v>569.3151973946751</v>
+        <v>244.3135557973886</v>
       </c>
       <c r="Y27" t="n">
-        <v>559.3189784230624</v>
+        <v>234.3173368257758</v>
       </c>
     </row>
     <row r="28">
@@ -6379,52 +6379,52 @@
         <v>35.91578399468465</v>
       </c>
       <c r="I28" t="n">
-        <v>71.14504524338494</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="J28" t="n">
-        <v>71.14504524338494</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="K28" t="n">
-        <v>71.14504524338494</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="L28" t="n">
-        <v>71.14504524338494</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="M28" t="n">
-        <v>71.14504524338494</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1390261192992</v>
+        <v>84.06366685298828</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1390261192992</v>
+        <v>256.1827763203652</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1390261192992</v>
+        <v>256.1827763203652</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192992</v>
+        <v>256.1827763203652</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204432</v>
+        <v>243.9668043204434</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974706</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923416</v>
       </c>
       <c r="V28" t="n">
         <v>125.7211852627244</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170785</v>
+        <v>48.12252088170791</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583559</v>
+        <v>39.60592890583562</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91578399468465</v>
@@ -6452,13 +6452,13 @@
         <v>406.0252176098458</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116751</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H29" t="n">
-        <v>63.717935110261</v>
+        <v>63.71793511026094</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J29" t="n">
         <v>171.24992184767</v>
@@ -6467,10 +6467,10 @@
         <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916496</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636027</v>
+        <v>926.2039246636026</v>
       </c>
       <c r="N29" t="n">
         <v>1212.874017025872</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.91578399468465</v>
+        <v>47.73378338979399</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K30" t="n">
         <v>73.87380801795027</v>
@@ -6567,25 +6567,25 @@
         <v>793.0763328677682</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677682</v>
+        <v>599.5496587667125</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528414</v>
+        <v>382.4071766587261</v>
       </c>
       <c r="U30" t="n">
-        <v>767.5984841187812</v>
+        <v>358.4273359246659</v>
       </c>
       <c r="V30" t="n">
-        <v>534.8185666193096</v>
+        <v>330.9920919213595</v>
       </c>
       <c r="W30" t="n">
-        <v>265.419997349601</v>
+        <v>61.59352265165086</v>
       </c>
       <c r="X30" t="n">
-        <v>45.9120029662974</v>
+        <v>57.73000236140678</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.91578399468465</v>
+        <v>47.73378338979399</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91578399468465</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91578399468465</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="L31" t="n">
-        <v>215.4345424482158</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="M31" t="n">
-        <v>215.4345424482158</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1390261192992</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192992</v>
+        <v>112.6830192417084</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204432</v>
+        <v>243.9668043204433</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974705</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923415</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627244</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170789</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583558</v>
+        <v>39.6059289058356</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="32">
@@ -6677,58 +6677,58 @@
         <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848163</v>
+        <v>876.9831877848166</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505963</v>
+        <v>752.3627374505967</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503069</v>
+        <v>593.6950624503072</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213533</v>
+        <v>402.9866424213538</v>
       </c>
       <c r="G32" t="n">
-        <v>196.481267534517</v>
+        <v>196.4812675345171</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443701</v>
+        <v>62.51751034443695</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8693579078084</v>
+        <v>149.9761592061434</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687723</v>
+        <v>355.5623675671073</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810448</v>
+        <v>614.52746057938</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676261</v>
+        <v>907.6325188659614</v>
       </c>
       <c r="N32" t="n">
         <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1441.667626592879</v>
+        <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
         <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097463</v>
+        <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.468698506371</v>
+        <v>1768.46869850637</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208275</v>
+        <v>1760.318962208274</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
       <c r="C33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
       <c r="D33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
       <c r="E33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
       <c r="F33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K33" t="n">
         <v>73.59245846346028</v>
@@ -6789,40 +6789,40 @@
         <v>372.5865755917235</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914318</v>
+        <v>577.4830123914319</v>
       </c>
       <c r="O33" t="n">
-        <v>709.176139934703</v>
+        <v>709.1761399347031</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132782</v>
+        <v>792.7949833132783</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.8518626482044</v>
+        <v>792.7949833132783</v>
       </c>
       <c r="R33" t="n">
-        <v>785.8518626482044</v>
+        <v>656.7122964673545</v>
       </c>
       <c r="S33" t="n">
-        <v>785.8518626482044</v>
+        <v>656.7122964673545</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2729298446116</v>
+        <v>656.1333636637617</v>
       </c>
       <c r="U33" t="n">
-        <v>762.2121643218852</v>
+        <v>416.5090488366418</v>
       </c>
       <c r="V33" t="n">
-        <v>519.1324462255193</v>
+        <v>389.9928800446694</v>
       </c>
       <c r="W33" t="n">
-        <v>249.7338769558106</v>
+        <v>197.9031320070794</v>
       </c>
       <c r="X33" t="n">
-        <v>44.71157820047351</v>
+        <v>194.9586869281693</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.63443444019466</v>
+        <v>185.8815431678905</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.33148411249631</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>42.33148411249631</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D34" t="n">
-        <v>42.33148411249631</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E34" t="n">
-        <v>42.33148411249631</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0478053894702</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G34" t="n">
-        <v>162.2879453577902</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H34" t="n">
-        <v>210.3754816125399</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854719</v>
+        <v>189.9912269324141</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854719</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854719</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979498</v>
+        <v>238.1710034979494</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863109</v>
+        <v>228.7126565863106</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925158</v>
+        <v>153.7039245925156</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742327</v>
+        <v>122.6826100742325</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455005</v>
+        <v>46.00302090454993</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001169</v>
+        <v>38.40550414001163</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>377.2836627273271</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874163</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962317</v>
+        <v>96.5570609896231</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K35" t="n">
-        <v>115.5900997220872</v>
+        <v>278.6935426973331</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4467420308347</v>
+        <v>325.4047010363696</v>
       </c>
       <c r="M35" t="n">
-        <v>631.3033843395823</v>
+        <v>583.261343345117</v>
       </c>
       <c r="N35" t="n">
-        <v>706.6203276432444</v>
+        <v>701.6185958533628</v>
       </c>
       <c r="O35" t="n">
-        <v>740.8306227200268</v>
+        <v>735.8288909301451</v>
       </c>
       <c r="P35" t="n">
-        <v>740.8306227200268</v>
+        <v>735.8288909301451</v>
       </c>
       <c r="Q35" t="n">
-        <v>921.3478598188163</v>
+        <v>916.3461280289347</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7497587480073</v>
+        <v>992.7480269581257</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581257</v>
       </c>
       <c r="T35" t="n">
         <v>1041.845019429283</v>
@@ -6971,16 +6971,16 @@
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781208</v>
+        <v>992.5311717781203</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515903</v>
+        <v>926.02875825159</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190607</v>
+        <v>837.4190210190606</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160828</v>
+        <v>726.0791291160826</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185128</v>
+        <v>58.79492441185127</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568483</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616692</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="R36" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="S36" t="n">
-        <v>771.0543285965954</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="T36" t="n">
-        <v>771.0543285965954</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="U36" t="n">
-        <v>771.0543285965954</v>
+        <v>344.8464603334936</v>
       </c>
       <c r="V36" t="n">
-        <v>527.9746105002295</v>
+        <v>344.8464603334936</v>
       </c>
       <c r="W36" t="n">
-        <v>264.8824338766731</v>
+        <v>81.7542837099374</v>
       </c>
       <c r="X36" t="n">
-        <v>45.37443949336949</v>
+        <v>81.7542837099374</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379707</v>
+        <v>623.0203756379706</v>
       </c>
       <c r="C38" t="n">
         <v>544.0845948837515</v>
@@ -7157,49 +7157,49 @@
         <v>477.7077411385742</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273274</v>
+        <v>377.2836627273275</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874166</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962317</v>
+        <v>96.5570609896231</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57334671175849</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J38" t="n">
-        <v>244.892819196293</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7494615050406</v>
+        <v>278.6935426973331</v>
       </c>
       <c r="L38" t="n">
-        <v>549.4606198440771</v>
+        <v>325.4047010363696</v>
       </c>
       <c r="M38" t="n">
-        <v>630.3117434574225</v>
+        <v>406.255824649715</v>
       </c>
       <c r="N38" t="n">
-        <v>705.6286867610846</v>
+        <v>481.5727679533771</v>
       </c>
       <c r="O38" t="n">
-        <v>921.3478598188163</v>
+        <v>515.7830630301595</v>
       </c>
       <c r="P38" t="n">
-        <v>921.3478598188163</v>
+        <v>770.1716694697957</v>
       </c>
       <c r="Q38" t="n">
-        <v>921.3478598188163</v>
+        <v>950.6889065685853</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7497587480073</v>
+        <v>950.6889065685853</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.845019429283</v>
+        <v>994.784167249861</v>
       </c>
       <c r="T38" t="n">
         <v>1041.845019429283</v>
@@ -7208,16 +7208,16 @@
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781211</v>
+        <v>992.5311717781208</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515907</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190611</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160833</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83690038858566</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185128</v>
+        <v>58.79492441185127</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568483</v>
@@ -7272,31 +7272,31 @@
         <v>777.9974492616692</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="R39" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="S39" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="T39" t="n">
-        <v>729.077764460118</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="U39" t="n">
-        <v>729.077764460118</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="V39" t="n">
-        <v>729.077764460118</v>
+        <v>534.9177311653033</v>
       </c>
       <c r="W39" t="n">
-        <v>465.9855878365616</v>
+        <v>271.8255545417471</v>
       </c>
       <c r="X39" t="n">
-        <v>246.477593453258</v>
+        <v>271.8255545417471</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83690038858566</v>
+        <v>271.8255545417471</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="41">
@@ -7409,34 +7409,34 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>259.999709850894</v>
+        <v>422.5827360122557</v>
       </c>
       <c r="L41" t="n">
-        <v>545.3129055569145</v>
+        <v>690.022050475336</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1640291702599</v>
+        <v>770.8731740886814</v>
       </c>
       <c r="N41" t="n">
-        <v>701.4809724739221</v>
+        <v>1084.792154759328</v>
       </c>
       <c r="O41" t="n">
-        <v>974.2933049176884</v>
+        <v>1357.604487203094</v>
       </c>
       <c r="P41" t="n">
-        <v>1197.945465034152</v>
+        <v>1357.604487203094</v>
       </c>
       <c r="Q41" t="n">
-        <v>1347.726255809768</v>
+        <v>1357.604487203094</v>
       </c>
       <c r="R41" t="n">
-        <v>1393.391708415787</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="S41" t="n">
-        <v>1393.391708415787</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T41" t="n">
         <v>1403.269939809112</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>289.3762633511797</v>
+        <v>188.8455150351505</v>
       </c>
       <c r="C42" t="n">
-        <v>289.3762633511797</v>
+        <v>188.8455150351505</v>
       </c>
       <c r="D42" t="n">
-        <v>289.3762633511797</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>115.8130594725941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>115.8130594725941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
-        <v>115.8130594725941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H42" t="n">
-        <v>115.8130594725941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J42" t="n">
         <v>28.06539879618224</v>
@@ -7509,31 +7509,31 @@
         <v>785.2259476692658</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="R42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="S42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="T42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="U42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="V42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="W42" t="n">
-        <v>508.8842577344833</v>
+        <v>633.9942024831265</v>
       </c>
       <c r="X42" t="n">
-        <v>289.3762633511797</v>
+        <v>414.4862080998229</v>
       </c>
       <c r="Y42" t="n">
-        <v>289.3762633511797</v>
+        <v>188.8455150351505</v>
       </c>
     </row>
     <row r="43">
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>109.7284612176717</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="I43" t="n">
-        <v>109.7284612176717</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="J43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="K43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="M43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="O43" t="n">
-        <v>124.6079130418985</v>
+        <v>102.5010377446798</v>
       </c>
       <c r="P43" t="n">
-        <v>124.6079130418985</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.6079130418985</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6079130418985</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S43" t="n">
         <v>130.125806765216</v>
@@ -7609,10 +7609,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X43" t="n">
-        <v>46.96717530900613</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.96717530900613</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>610.3783222853729</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893255</v>
+        <v>478.5937231893254</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646144</v>
+        <v>314.7683790646142</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7652,25 +7652,25 @@
         <v>422.5827360122557</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4717764441534</v>
+        <v>469.2938943512922</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3229000574988</v>
+        <v>788.7470553316216</v>
       </c>
       <c r="N44" t="n">
-        <v>679.639843361161</v>
+        <v>1102.666036002268</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049273</v>
+        <v>1136.87633107905</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.104335921391</v>
+        <v>1360.528491195514</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.885126697007</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.550579303025</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="S44" t="n">
         <v>1384.909393661128</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>367.7247817909144</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>178.3125075238781</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>178.3125075238781</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>178.3125075238781</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>178.3125075238781</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
         <v>28.06539879618224</v>
@@ -7749,28 +7749,28 @@
         <v>778.282827004192</v>
       </c>
       <c r="R45" t="n">
-        <v>778.282827004192</v>
+        <v>642.2001401582681</v>
       </c>
       <c r="S45" t="n">
-        <v>778.282827004192</v>
+        <v>642.2001401582681</v>
       </c>
       <c r="T45" t="n">
-        <v>778.282827004192</v>
+        <v>425.0576580502818</v>
       </c>
       <c r="U45" t="n">
-        <v>778.282827004192</v>
+        <v>425.0576580502818</v>
       </c>
       <c r="V45" t="n">
-        <v>778.282827004192</v>
+        <v>181.9779399539159</v>
       </c>
       <c r="W45" t="n">
-        <v>546.2606347178495</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X45" t="n">
-        <v>546.2606347178495</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
-        <v>546.2606347178495</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -7804,34 +7804,34 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="T46" t="n">
         <v>130.125806765216</v>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>177.3421919187561</v>
       </c>
       <c r="P9" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1338058733768</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9454765282923</v>
+        <v>7.459431452055043</v>
       </c>
       <c r="C11" t="n">
         <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.851103135857869</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F11" t="n">
-        <v>73.57225179807048</v>
+        <v>225.0574857904725</v>
       </c>
       <c r="G11" t="n">
         <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294982</v>
+        <v>16.74367530294978</v>
       </c>
       <c r="S11" t="n">
         <v>49.37664323013697</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692373</v>
+        <v>44.32438889692378</v>
       </c>
       <c r="U11" t="n">
         <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>3.889162448846633</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>204.1438035689089</v>
@@ -23495,13 +23495,13 @@
         <v>7.459431452055043</v>
       </c>
       <c r="C14" t="n">
-        <v>15.94380570036574</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
         <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857869</v>
       </c>
       <c r="F14" t="n">
         <v>225.0574857904725</v>
@@ -23510,10 +23510,10 @@
         <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.8703951070085</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294981</v>
       </c>
       <c r="S14" t="n">
         <v>49.37664323013697</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>136.3173023661866</v>
       </c>
       <c r="W14" t="n">
         <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.6577584926716</v>
+        <v>204.1438035689089</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>220482.9987941149</v>
       </c>
       <c r="C2" t="n">
-        <v>220482.998794115</v>
+        <v>220482.9987941149</v>
       </c>
       <c r="D2" t="n">
         <v>220616.6495636306</v>
@@ -26326,7 +26326,7 @@
         <v>189930.6968703619</v>
       </c>
       <c r="G2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.6372146338</v>
       </c>
       <c r="H2" t="n">
         <v>220929.6372146338</v>
@@ -26335,7 +26335,7 @@
         <v>220929.6372146338</v>
       </c>
       <c r="J2" t="n">
-        <v>220929.6372146337</v>
+        <v>220929.6372146336</v>
       </c>
       <c r="K2" t="n">
         <v>220929.6372146337</v>
@@ -26344,10 +26344,10 @@
         <v>220929.6372146338</v>
       </c>
       <c r="M2" t="n">
+        <v>220929.6372146339</v>
+      </c>
+      <c r="N2" t="n">
         <v>220929.6372146338</v>
-      </c>
-      <c r="N2" t="n">
-        <v>220929.6372146337</v>
       </c>
       <c r="O2" t="n">
         <v>220929.6372146338</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658169</v>
+        <v>95448.13167658164</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395815</v>
+        <v>96176.03924395816</v>
       </c>
       <c r="M3" t="n">
         <v>46128.92849852183</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134119</v>
+        <v>72249.0765513412</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>338510.0487309746</v>
       </c>
       <c r="K4" t="n">
-        <v>338510.0487309745</v>
+        <v>338510.0487309744</v>
       </c>
       <c r="L4" t="n">
         <v>338493.7904235544</v>
@@ -26482,13 +26482,13 @@
         <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
         <v>47448.92101020608</v>
@@ -26497,7 +26497,7 @@
         <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539591</v>
+        <v>47311.5884253959</v>
       </c>
       <c r="M5" t="n">
         <v>40912.97865860086</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195782.2086910002</v>
+        <v>-195786.6750752054</v>
       </c>
       <c r="C6" t="n">
-        <v>-195782.2086910003</v>
+        <v>-195786.6750752054</v>
       </c>
       <c r="D6" t="n">
-        <v>-196618.187896837</v>
+        <v>-196621.317773347</v>
       </c>
       <c r="E6" t="n">
-        <v>-384925.5921772334</v>
+        <v>-385235.5815806761</v>
       </c>
       <c r="F6" t="n">
-        <v>-105915.4489098535</v>
+        <v>-106225.4383132962</v>
       </c>
       <c r="G6" t="n">
         <v>-251009.9927743656</v>
       </c>
       <c r="H6" t="n">
+        <v>-155561.861097784</v>
+      </c>
+      <c r="I6" t="n">
         <v>-155561.8610977839</v>
       </c>
-      <c r="I6" t="n">
-        <v>-155561.861097784</v>
-      </c>
       <c r="J6" t="n">
-        <v>-308519.7488975573</v>
+        <v>-308519.7488975574</v>
       </c>
       <c r="K6" t="n">
-        <v>-165029.3325265469</v>
+        <v>-165029.3325265468</v>
       </c>
       <c r="L6" t="n">
         <v>-261051.7808782746</v>
       </c>
       <c r="M6" t="n">
-        <v>-203797.6466082544</v>
+        <v>-203797.6466082543</v>
       </c>
       <c r="N6" t="n">
-        <v>-157668.7181097327</v>
+        <v>-157668.7181097326</v>
       </c>
       <c r="O6" t="n">
         <v>-233188.3996409926</v>
@@ -26698,13 +26698,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="J2" t="n">
         <v>213.488029352129</v>
@@ -26716,10 +26716,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="O2" t="n">
         <v>241.0121589565495</v>
@@ -26814,22 +26814,22 @@
         <v>448.9472999335582</v>
       </c>
       <c r="K4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024332</v>
+        <v>445.4304305024331</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8174849522781</v>
+        <v>350.817484952278</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8174849522781</v>
+        <v>350.817484952278</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640187</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495731</v>
+        <v>90.35623009495737</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640187</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.2855674184499</v>
+        <v>382.1079190306973</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.9372550378137</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>144.7140833671753</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.1160050168152</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27992,10 +27992,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.1877141458868</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>214.2152558445359</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28123,13 +28123,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>160.7602011037066</v>
+        <v>48.35187653621897</v>
       </c>
       <c r="Q11" t="n">
         <v>178.141763849541</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423133</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>3.105362283807892</v>
+        <v>81.94689112322921</v>
       </c>
       <c r="T12" t="n">
-        <v>177.7200021133996</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U12" t="n">
-        <v>178.141763849541</v>
+        <v>48.74202660261131</v>
       </c>
       <c r="V12" t="n">
         <v>178.141763849541</v>
@@ -28232,7 +28232,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="X12" t="n">
-        <v>28.8268693632333</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y12" t="n">
         <v>178.141763849541</v>
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7008027322384</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H13" t="n">
         <v>165.824644867158</v>
@@ -28269,7 +28269,7 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1822407177291</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K13" t="n">
         <v>67.03321058462939</v>
@@ -28278,19 +28278,19 @@
         <v>32.15595010613788</v>
       </c>
       <c r="M13" t="n">
-        <v>25.22122397250156</v>
+        <v>178.141763849541</v>
       </c>
       <c r="N13" t="n">
-        <v>178.141763849541</v>
+        <v>166.4029913629857</v>
       </c>
       <c r="O13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28348,25 +28348,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78688000567909</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K14" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>93.08400737260564</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>155.296841500973</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q14" t="n">
         <v>178.141763849541</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R15" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>73.53366227610999</v>
       </c>
       <c r="T15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
+        <v>48.74202660261131</v>
+      </c>
+      <c r="V15" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="V15" t="n">
-        <v>109.4805153548563</v>
-      </c>
       <c r="W15" t="n">
-        <v>78.21853850077429</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X15" t="n">
-        <v>28.8268693632333</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>34.89824105778831</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28497,37 +28497,37 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7008027322384</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
-        <v>165.824644867158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8538042427314</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J16" t="n">
+        <v>165.0736093096294</v>
+      </c>
+      <c r="K16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="K16" t="n">
-        <v>67.03321058462939</v>
-      </c>
       <c r="L16" t="n">
-        <v>32.15595010613788</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M16" t="n">
+        <v>25.22122397250156</v>
+      </c>
+      <c r="N16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="N16" t="n">
-        <v>16.52441230575095</v>
-      </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q16" t="n">
-        <v>166.8790523844798</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R16" t="n">
         <v>178.141763849541</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0121589565495</v>
+        <v>245.5672649184957</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567909</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103235</v>
+        <v>195.2211221593405</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2894360248174</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452681</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
     </row>
     <row r="18">
@@ -28643,10 +28643,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>80.8516363035704</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>71.99915583058174</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28658,13 +28658,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.105362283807893</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T18" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261131</v>
       </c>
       <c r="V18" t="n">
-        <v>52.16287583916494</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077429</v>
       </c>
       <c r="X18" t="n">
-        <v>28.8268693632333</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28755,13 +28755,13 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P19" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2193142604766</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103235</v>
+        <v>6.735077083103228</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.1507898107171</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R20" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S20" t="n">
-        <v>227.518407079678</v>
+        <v>297.451928445268</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4661527464647</v>
+        <v>286.2200904550049</v>
       </c>
       <c r="U20" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446376404189</v>
@@ -28898,10 +28898,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807892</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>48.9525487837567</v>
       </c>
       <c r="U21" t="n">
-        <v>208.2635027381331</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
         <v>52.16287583916494</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077429</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.89824105778831</v>
       </c>
     </row>
     <row r="22">
@@ -28992,13 +28992,13 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P22" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2193142604766</v>
@@ -29035,58 +29035,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2211221593406</v>
+        <v>195.2211221593405</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>94.49446064638602</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P23" t="n">
-        <v>15.10088611163699</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037102</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R23" t="n">
-        <v>268.3177980628367</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
-        <v>227.518407079678</v>
+        <v>297.451928445268</v>
       </c>
       <c r="T23" t="n">
         <v>222.4661527464647</v>
@@ -29095,16 +29095,16 @@
         <v>250.1505464515833</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
     </row>
     <row r="24">
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R24" t="n">
-        <v>105.3874385424359</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916494</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>235.4079350513264</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.8268693632333</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29229,13 +29229,13 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P25" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2193142604766</v>
@@ -29311,13 +29311,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="O26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521299</v>
       </c>
       <c r="P26" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4880293521298</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R26" t="n">
         <v>213.488029352129</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>139.505272171464</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423133</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7218599774646</v>
@@ -29411,13 +29411,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="W27" t="n">
-        <v>213.488029352129</v>
-      </c>
-      <c r="X27" t="n">
-        <v>101.3899063707615</v>
       </c>
       <c r="Y27" t="n">
         <v>213.488029352129</v>
@@ -29451,7 +29451,7 @@
         <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>200.4389166151559</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J28" t="n">
         <v>120.241573402485</v>
@@ -29466,19 +29466,19 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N28" t="n">
-        <v>213.488029352129</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O28" t="n">
-        <v>37.4828141202879</v>
+        <v>211.3405004509716</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4312113734075</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S28" t="n">
         <v>213.488029352129</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>175.8183321232077</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423133</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
-        <v>10.19680259092539</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
         <v>213.488029352129</v>
@@ -29691,25 +29691,25 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J31" t="n">
-        <v>120.241573402485</v>
+        <v>197.7842352681656</v>
       </c>
       <c r="K31" t="n">
         <v>67.03321058462939</v>
       </c>
       <c r="L31" t="n">
-        <v>213.488029352129</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M31" t="n">
         <v>25.22122397250156</v>
       </c>
       <c r="N31" t="n">
-        <v>67.74106247856244</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P31" t="n">
-        <v>58.48196179900676</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
@@ -29770,7 +29770,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884556</v>
       </c>
       <c r="K32" t="n">
         <v>214.3979138113496</v>
@@ -29782,7 +29782,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="N32" t="n">
-        <v>192.2835716884565</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
         <v>214.3979138113496</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
@@ -29882,16 +29882,16 @@
         <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>214.3979138113496</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>76.53573301979748</v>
       </c>
       <c r="X33" t="n">
-        <v>14.3408386716869</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3979138113496</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.3816173036566</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29916,16 +29916,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3979138113496</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3979138113496</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3979138113496</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3979138113496</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
         <v>120.241573402485</v>
@@ -29940,16 +29940,16 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900676</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2193142604766</v>
+        <v>197.3535800716457</v>
       </c>
       <c r="R34" t="n">
         <v>203.4312113734075</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="I35" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78688000567909</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K35" t="n">
-        <v>102.4453794401755</v>
+        <v>267.1963319404239</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2782666360718</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.793453227679</v>
+        <v>178.7934532276788</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>43.47505980260969</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.10088611163699</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="U35" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
     </row>
     <row r="36">
@@ -30086,7 +30086,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243328719690851</v>
+        <v>6.243328719690965</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.0921224202896</v>
+        <v>163.0760766458874</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3813398018976</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I37" t="n">
         <v>164.8538042427314</v>
@@ -30177,16 +30177,16 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.2193142604766</v>
+        <v>162.7760091952161</v>
       </c>
       <c r="R37" t="n">
         <v>203.4312113734075</v>
@@ -30198,13 +30198,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0590744345018</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K38" t="n">
-        <v>267.196331940424</v>
+        <v>267.1963319404239</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,37 +30259,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>183.342300990858</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.10088611163699</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71843090037102</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4661527464647</v>
+        <v>270.0023670691127</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>115.7898783104019</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30353,22 +30353,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>173.4142587917939</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243328719690851</v>
+        <v>6.243328719690965</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J40" t="n">
-        <v>155.7982683372247</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
         <v>67.03321058462939</v>
@@ -30414,19 +30414,19 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O40" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4312113734075</v>
+        <v>238.987906308147</v>
       </c>
       <c r="S40" t="n">
         <v>235.4385289329965</v>
@@ -30435,13 +30435,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,28 +30481,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567909</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="L41" t="n">
+        <v>222.95773345863</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0121589565495</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R41" t="n">
         <v>241.0121589565495</v>
@@ -30511,7 +30511,7 @@
         <v>227.518407079678</v>
       </c>
       <c r="T41" t="n">
-        <v>232.4441642548745</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U41" t="n">
         <v>241.0121589565495</v>
@@ -30542,10 +30542,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30557,10 +30557,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
-        <v>72.97267199067235</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
@@ -30599,13 +30599,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>116.9851558427337</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.0121589565495</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30633,13 +30633,13 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>165.824644867158</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="I43" t="n">
         <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
-        <v>135.2713227198859</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
         <v>67.03321058462939</v>
@@ -30651,13 +30651,13 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900676</v>
+        <v>86.38576889045744</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2193142604766</v>
@@ -30666,7 +30666,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S43" t="n">
-        <v>241.0121589565495</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T43" t="n">
         <v>223.761677253872</v>
@@ -30681,7 +30681,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X43" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30724,28 +30724,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>54.72513342713253</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>114.3456051080622</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0121589565495</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T44" t="n">
         <v>241.0121589565495</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H45" t="n">
         <v>125.7358448975026</v>
@@ -30797,7 +30797,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393111</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,22 +30821,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>37.00261321353256</v>
+        <v>114.3311678308553</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,7 +30876,7 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J46" t="n">
-        <v>223.3328945833272</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K46" t="n">
         <v>67.03321058462939</v>
@@ -30888,16 +30888,16 @@
         <v>25.22122397250156</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900676</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2193142604766</v>
+        <v>213.0601537386413</v>
       </c>
       <c r="R46" t="n">
         <v>203.4312113734075</v>
@@ -30906,7 +30906,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761677253872</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I11" t="n">
         <v>15.67764959393683</v>
@@ -31762,7 +31762,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L11" t="n">
         <v>64.17354745594153</v>
@@ -31771,16 +31771,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P11" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R11" t="n">
         <v>25.54467690305776</v>
@@ -31792,7 +31792,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J12" t="n">
         <v>20.55660980881732</v>
@@ -31847,7 +31847,7 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M12" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N12" t="n">
         <v>38.1090752432813</v>
@@ -31856,10 +31856,10 @@
         <v>51.76799648572086</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R12" t="n">
         <v>13.50909282083553</v>
@@ -31868,7 +31868,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374773</v>
@@ -31914,7 +31914,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J13" t="n">
         <v>12.89655637645349</v>
@@ -31926,7 +31926,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N13" t="n">
         <v>27.91407142662231</v>
@@ -31935,7 +31935,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27455069866441</v>
@@ -31947,10 +31947,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I14" t="n">
         <v>15.67764959393683</v>
@@ -31999,7 +31999,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L14" t="n">
         <v>64.17354745594153</v>
@@ -32008,16 +32008,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P14" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R14" t="n">
         <v>25.54467690305776</v>
@@ -32029,7 +32029,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J15" t="n">
         <v>20.55660980881732</v>
@@ -32084,7 +32084,7 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M15" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N15" t="n">
         <v>38.1090752432813</v>
@@ -32093,10 +32093,10 @@
         <v>51.76799648572086</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R15" t="n">
         <v>13.50909282083553</v>
@@ -32105,7 +32105,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374773</v>
@@ -32151,7 +32151,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J16" t="n">
         <v>12.89655637645349</v>
@@ -32163,7 +32163,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N16" t="n">
         <v>27.91407142662231</v>
@@ -32172,7 +32172,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27455069866441</v>
@@ -32184,10 +32184,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I17" t="n">
         <v>15.67764959393683</v>
@@ -32236,7 +32236,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L17" t="n">
         <v>64.17354745594153</v>
@@ -32245,16 +32245,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P17" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R17" t="n">
         <v>25.54467690305776</v>
@@ -32266,7 +32266,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J18" t="n">
         <v>20.55660980881732</v>
@@ -32321,7 +32321,7 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M18" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N18" t="n">
         <v>38.1090752432813</v>
@@ -32330,10 +32330,10 @@
         <v>51.76799648572086</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698059</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R18" t="n">
         <v>13.50909282083553</v>
@@ -32342,7 +32342,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374773</v>
@@ -32388,7 +32388,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J19" t="n">
         <v>12.89655637645349</v>
@@ -32400,7 +32400,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N19" t="n">
         <v>27.91407142662231</v>
@@ -32409,7 +32409,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27455069866441</v>
@@ -32421,10 +32421,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I20" t="n">
         <v>15.67764959393683</v>
@@ -32473,7 +32473,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L20" t="n">
         <v>64.17354745594153</v>
@@ -32482,16 +32482,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P20" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R20" t="n">
         <v>25.54467690305776</v>
@@ -32503,7 +32503,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J21" t="n">
         <v>20.55660980881732</v>
@@ -32558,7 +32558,7 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M21" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N21" t="n">
         <v>38.1090752432813</v>
@@ -32567,10 +32567,10 @@
         <v>51.76799648572086</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R21" t="n">
         <v>13.50909282083553</v>
@@ -32579,7 +32579,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374773</v>
@@ -32625,7 +32625,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J22" t="n">
         <v>12.89655637645349</v>
@@ -32637,7 +32637,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N22" t="n">
         <v>27.91407142662231</v>
@@ -32646,7 +32646,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27455069866441</v>
@@ -32658,10 +32658,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I23" t="n">
         <v>15.67764959393683</v>
@@ -32710,7 +32710,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L23" t="n">
         <v>64.17354745594153</v>
@@ -32719,16 +32719,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P23" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R23" t="n">
         <v>25.54467690305776</v>
@@ -32740,7 +32740,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J24" t="n">
         <v>20.55660980881732</v>
@@ -32795,19 +32795,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M24" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N24" t="n">
-        <v>56.5891279445271</v>
+        <v>38.1090752432813</v>
       </c>
       <c r="O24" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R24" t="n">
         <v>13.50909282083553</v>
@@ -32816,7 +32816,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374773</v>
@@ -32862,7 +32862,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J25" t="n">
         <v>12.89655637645349</v>
@@ -32874,7 +32874,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N25" t="n">
         <v>27.91407142662231</v>
@@ -32883,7 +32883,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27455069866441</v>
@@ -32895,10 +32895,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I26" t="n">
         <v>15.67764959393683</v>
@@ -32947,7 +32947,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L26" t="n">
         <v>64.17354745594153</v>
@@ -32956,16 +32956,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P26" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R26" t="n">
         <v>25.54467690305776</v>
@@ -32977,7 +32977,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J27" t="n">
         <v>20.55660980881732</v>
@@ -33032,19 +33032,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M27" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N27" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O27" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R27" t="n">
         <v>13.50909282083553</v>
@@ -33053,7 +33053,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374773</v>
@@ -33099,7 +33099,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J28" t="n">
         <v>12.89655637645349</v>
@@ -33111,7 +33111,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N28" t="n">
         <v>27.91407142662231</v>
@@ -33120,7 +33120,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27455069866441</v>
@@ -33132,10 +33132,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I29" t="n">
         <v>15.67764959393683</v>
@@ -33184,7 +33184,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L29" t="n">
         <v>64.17354745594153</v>
@@ -33193,16 +33193,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P29" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R29" t="n">
         <v>25.54467690305776</v>
@@ -33214,7 +33214,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J30" t="n">
         <v>20.55660980881732</v>
@@ -33269,19 +33269,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M30" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N30" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O30" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R30" t="n">
         <v>13.50909282083553</v>
@@ -33290,7 +33290,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374773</v>
@@ -33336,7 +33336,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J31" t="n">
         <v>12.89655637645349</v>
@@ -33348,7 +33348,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N31" t="n">
         <v>27.91407142662231</v>
@@ -33357,7 +33357,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27455069866441</v>
@@ -33369,10 +33369,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I32" t="n">
         <v>15.67764959393683</v>
@@ -33421,7 +33421,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L32" t="n">
         <v>64.17354745594153</v>
@@ -33430,16 +33430,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P32" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R32" t="n">
         <v>25.54467690305776</v>
@@ -33451,7 +33451,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J33" t="n">
         <v>20.55660980881732</v>
@@ -33506,19 +33506,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M33" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N33" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O33" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R33" t="n">
         <v>13.50909282083553</v>
@@ -33527,7 +33527,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431452333374773</v>
@@ -33573,7 +33573,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J34" t="n">
         <v>12.89655637645349</v>
@@ -33585,7 +33585,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N34" t="n">
         <v>27.91407142662231</v>
@@ -33594,7 +33594,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27455069866441</v>
@@ -33606,10 +33606,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I35" t="n">
         <v>15.67764959393683</v>
@@ -33658,7 +33658,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L35" t="n">
         <v>64.17354745594153</v>
@@ -33667,16 +33667,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P35" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R35" t="n">
         <v>25.54467690305776</v>
@@ -33688,7 +33688,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J36" t="n">
         <v>20.55660980881732</v>
@@ -33743,19 +33743,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M36" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N36" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O36" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R36" t="n">
         <v>13.50909282083553</v>
@@ -33764,7 +33764,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431452333374773</v>
@@ -33810,7 +33810,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J37" t="n">
         <v>12.89655637645349</v>
@@ -33822,7 +33822,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N37" t="n">
         <v>27.91407142662231</v>
@@ -33831,7 +33831,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27455069866441</v>
@@ -33843,10 +33843,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I38" t="n">
         <v>15.67764959393683</v>
@@ -33895,7 +33895,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L38" t="n">
         <v>64.17354745594153</v>
@@ -33904,16 +33904,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P38" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R38" t="n">
         <v>25.54467690305776</v>
@@ -33925,7 +33925,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J39" t="n">
         <v>20.55660980881732</v>
@@ -33980,19 +33980,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M39" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N39" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O39" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R39" t="n">
         <v>13.50909282083553</v>
@@ -34001,7 +34001,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431452333374773</v>
@@ -34047,7 +34047,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J40" t="n">
         <v>12.89655637645349</v>
@@ -34059,7 +34059,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N40" t="n">
         <v>27.91407142662231</v>
@@ -34068,7 +34068,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27455069866441</v>
@@ -34080,10 +34080,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I41" t="n">
         <v>15.67764959393683</v>
@@ -34132,7 +34132,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L41" t="n">
         <v>64.17354745594153</v>
@@ -34141,16 +34141,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P41" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R41" t="n">
         <v>25.54467690305776</v>
@@ -34162,7 +34162,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J42" t="n">
         <v>20.55660980881732</v>
@@ -34217,19 +34217,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M42" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N42" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O42" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R42" t="n">
         <v>13.50909282083553</v>
@@ -34238,7 +34238,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431452333374773</v>
@@ -34284,7 +34284,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J43" t="n">
         <v>12.89655637645349</v>
@@ -34296,7 +34296,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N43" t="n">
         <v>27.91407142662231</v>
@@ -34305,7 +34305,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27455069866441</v>
@@ -34317,10 +34317,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239489</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I44" t="n">
         <v>15.67764959393683</v>
@@ -34369,7 +34369,7 @@
         <v>34.51451688537438</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565829</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L44" t="n">
         <v>64.17354745594153</v>
@@ -34378,16 +34378,16 @@
         <v>71.40543646355903</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762486</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P44" t="n">
         <v>58.47780581467111</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883912</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R44" t="n">
         <v>25.54467690305776</v>
@@ -34399,7 +34399,7 @@
         <v>1.780141653523337</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327978</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J45" t="n">
         <v>20.55660980881732</v>
@@ -34454,19 +34454,19 @@
         <v>47.24269850914542</v>
       </c>
       <c r="M45" t="n">
-        <v>55.1300008660404</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N45" t="n">
-        <v>56.5891279445271</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O45" t="n">
         <v>51.76799648572086</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77399247369292</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R45" t="n">
         <v>13.50909282083553</v>
@@ -34475,7 +34475,7 @@
         <v>4.041467087894772</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8770031295809437</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431452333374773</v>
@@ -34521,7 +34521,7 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248058</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J46" t="n">
         <v>12.89655637645349</v>
@@ -34533,7 +34533,7 @@
         <v>27.11974835804557</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N46" t="n">
         <v>27.91407142662231</v>
@@ -34542,7 +34542,7 @@
         <v>25.78316298586845</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06195011345469</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27455069866441</v>
@@ -34554,10 +34554,10 @@
         <v>3.178950568813338</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189196</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539413</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.167855661100898</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>3.516869431124803</v>
+        <v>3.374773696533902</v>
       </c>
       <c r="P9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,16 +35419,16 @@
         <v>81.66780162964179</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874966</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O11" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P11" t="n">
-        <v>145.6593149920696</v>
+        <v>33.25099042458199</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916996</v>
+        <v>88.42333294916997</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.94066731524412</v>
+        <v>57.90019044705595</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N13" t="n">
-        <v>161.61735154379</v>
+        <v>149.8785790572348</v>
       </c>
       <c r="O13" t="n">
         <v>140.6589497292531</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906441</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>171.4066867664378</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124896</v>
+        <v>140.2669955938546</v>
       </c>
       <c r="M14" t="n">
+        <v>81.66780162964179</v>
+      </c>
+      <c r="N14" t="n">
+        <v>76.07772050874968</v>
+      </c>
+      <c r="O14" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="N14" t="n">
-        <v>76.07772050874966</v>
-      </c>
-      <c r="O14" t="n">
-        <v>34.55585361291142</v>
-      </c>
       <c r="P14" t="n">
-        <v>140.195955389336</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916996</v>
+        <v>88.42333294916997</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35793,37 +35793,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.31711898238303</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680962</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705595</v>
+        <v>44.83203590714439</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9205398770394</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.61735154379</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.65973812400318</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.555105961946261</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124896</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M17" t="n">
         <v>81.66780162964179</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874966</v>
+        <v>76.07772050874968</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.57100512444637</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>102.5664892927772</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559014</v>
+        <v>69.93352136559008</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368479</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,28 +36127,28 @@
         <v>47.18298822124896</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964179</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874966</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291142</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.4323589103461</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93352136559008</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>63.75393770854018</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>188.4860450762373</v>
@@ -36364,13 +36364,13 @@
         <v>47.18298822124896</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964179</v>
+        <v>176.1622622760278</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874966</v>
+        <v>76.07772050874968</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291142</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,10 +36379,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.43235891034597</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93352136559008</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
         <v>289.5657498608787</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0438829650404</v>
+        <v>248.0438829650413</v>
       </c>
       <c r="P26" t="n">
         <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7695984517588</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963819</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.58511237242453</v>
+        <v>48.6342251093976</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9636170463781</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>173.8576863306837</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.0568179787215</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>206.7529522690257</v>
       </c>
       <c r="L29" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
         <v>289.5657498608787</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963819</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>77.5426618656806</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3320792459911</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>51.2166501728115</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0060675531222</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6110338056704</v>
+        <v>115.4966916827765</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>207.6628367282464</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325985</v>
+        <v>261.5809020325986</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409913</v>
+        <v>296.0657154409914</v>
       </c>
       <c r="N32" t="n">
-        <v>268.3612921972062</v>
+        <v>290.4756343200993</v>
       </c>
       <c r="O32" t="n">
-        <v>248.953767424261</v>
+        <v>248.9537674242611</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6794829109785</v>
+        <v>124.6794829109786</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885876</v>
+        <v>19.51247465885882</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.764696638688537</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37212,16 +37212,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.4710315929029</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.69711107911115</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.5732689441916</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.5441095686182</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.9159520123428</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.13426581116916</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,34 +37306,34 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>95.71030235707225</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4612548573207</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874966</v>
+        <v>119.5527803113594</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>182.3406435341309</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201105</v>
+        <v>77.17363528201111</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54066735482389</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803719</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.55669493473952</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795236</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288228</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="L38" t="n">
         <v>47.18298822124896</v>
@@ -37552,25 +37552,25 @@
         <v>81.66780162964179</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874966</v>
+        <v>76.07772050874968</v>
       </c>
       <c r="O38" t="n">
-        <v>217.8981546037694</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9581883228649</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3406435341309</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201105</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482389</v>
+        <v>44.54066735482395</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>47.53621432264803</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>35.55669493473952</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
         <v>234.2770818734463</v>
       </c>
       <c r="L41" t="n">
-        <v>288.1951471777984</v>
+        <v>270.140721679879</v>
       </c>
       <c r="M41" t="n">
         <v>81.66780162964179</v>
       </c>
       <c r="N41" t="n">
-        <v>76.07772050874966</v>
+        <v>317.0898794652992</v>
       </c>
       <c r="O41" t="n">
         <v>275.5680125694609</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.12671980405869</v>
@@ -37807,7 +37807,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.978011508409775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.39523829158139</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37929,13 +37929,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>75.18751408939153</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.02974931740084</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>27.90380709145068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.573630023553012</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.09270354830696</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38020,28 +38020,28 @@
         <v>234.2770818734463</v>
       </c>
       <c r="L44" t="n">
-        <v>101.9081216483815</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M44" t="n">
-        <v>81.66780162964179</v>
+        <v>322.6799605861913</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874966</v>
+        <v>317.0898794652992</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5680125694609</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P44" t="n">
         <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561785</v>
+        <v>24.62717420769124</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405869</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687153</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>18.54600621008478</v>
@@ -38111,7 +38111,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017696</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.0913211808422</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>85.84083947816475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.25048170267745</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
